--- a/Data_GamesCompanies/Data_2302.xlsx
+++ b/Data_GamesCompanies/Data_2302.xlsx
@@ -37,8 +37,7 @@
     <t>Cumulative Revenue</t>
   </si>
   <si>
-    <t>RPD
-As of Feb 28, 2023</t>
+    <t>Revenue/Downloads</t>
   </si>
   <si>
     <t>Paid Downloads</t>
@@ -793,7 +792,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -860,25 +859,25 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1228,7 +1227,7 @@
     <col min="25" max="25" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1361,10 +1360,10 @@
         <v>82.31</v>
       </c>
       <c r="S2" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T2" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U2" s="5">
         <v>628000000</v>
@@ -1382,7 +1381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1438,10 +1437,10 @@
         <v>53.16</v>
       </c>
       <c r="S3" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T3" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U3" s="5">
         <v>1190000000</v>
@@ -1459,7 +1458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1515,10 +1514,10 @@
         <v>42.55</v>
       </c>
       <c r="S4" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T4" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U4" s="5">
         <v>328000000</v>
@@ -1536,7 +1535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1592,10 +1591,10 @@
         <v>67.26</v>
       </c>
       <c r="S5" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T5" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U5" s="5">
         <v>1870000000</v>
@@ -1613,7 +1612,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1669,10 +1668,10 @@
         <v>50.81</v>
       </c>
       <c r="S6" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T6" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U6" s="5">
         <v>404000000</v>
@@ -1690,7 +1689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1746,10 +1745,10 @@
         <v>53.3</v>
       </c>
       <c r="S7" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T7" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U7" s="5">
         <v>253000000</v>
@@ -1767,7 +1766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1823,10 +1822,10 @@
         <v>21.52</v>
       </c>
       <c r="S8" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T8" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U8" s="5">
         <v>437000000</v>
@@ -1844,7 +1843,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1898,10 +1897,10 @@
         <v>81.02</v>
       </c>
       <c r="S9" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T9" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U9" s="5">
         <v>724000000</v>
@@ -1919,7 +1918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1975,10 +1974,10 @@
         <v>46.4</v>
       </c>
       <c r="S10" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T10" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U10" s="5">
         <v>142000000</v>
@@ -1996,7 +1995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2052,10 +2051,10 @@
         <v>79.63</v>
       </c>
       <c r="S11" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T11" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U11" s="5">
         <v>380000000</v>
@@ -2073,7 +2072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2129,10 +2128,10 @@
         <v>44.66</v>
       </c>
       <c r="S12" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T12" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U12" s="5">
         <v>68800000</v>
@@ -2150,7 +2149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2206,10 +2205,10 @@
         <v>72.12</v>
       </c>
       <c r="S13" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T13" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U13" s="5">
         <v>296000000</v>
@@ -2227,7 +2226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2283,10 +2282,10 @@
         <v>60.71</v>
       </c>
       <c r="S14" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T14" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U14" s="5">
         <v>28100000</v>
@@ -2304,7 +2303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2360,10 +2359,10 @@
         <v>62.75</v>
       </c>
       <c r="S15" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T15" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U15" s="5">
         <v>203000000</v>
@@ -2381,7 +2380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2437,10 +2436,10 @@
         <v>50.36</v>
       </c>
       <c r="S16" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T16" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U16" s="5">
         <v>470000000</v>
@@ -2458,7 +2457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2514,10 +2513,10 @@
         <v>36.96</v>
       </c>
       <c r="S17" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T17" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U17" s="5">
         <v>134000000</v>
@@ -2535,7 +2534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2589,10 +2588,10 @@
         <v>30.61</v>
       </c>
       <c r="S18" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T18" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U18" s="5">
         <v>218000000</v>
@@ -2610,7 +2609,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2666,10 +2665,10 @@
         <v>45.7</v>
       </c>
       <c r="S19" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T19" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U19" s="5">
         <v>48700000</v>
@@ -2687,7 +2686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2743,10 +2742,10 @@
         <v>54.49</v>
       </c>
       <c r="S20" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T20" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U20" s="5">
         <v>153000000</v>
@@ -2764,7 +2763,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2820,10 +2819,10 @@
         <v>72.33</v>
       </c>
       <c r="S21" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T21" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U21" s="5">
         <v>462000000</v>
@@ -2841,7 +2840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2897,10 +2896,10 @@
         <v>37.9</v>
       </c>
       <c r="S22" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T22" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U22" s="5">
         <v>582000000</v>
@@ -2918,7 +2917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2974,10 +2973,10 @@
         <v>48.52</v>
       </c>
       <c r="S23" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T23" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U23" s="5">
         <v>15100000</v>
@@ -2995,7 +2994,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3049,10 +3048,10 @@
         <v>73.24</v>
       </c>
       <c r="S24" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T24" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U24" s="5">
         <v>80200000</v>
@@ -3070,7 +3069,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3126,10 +3125,10 @@
         <v>43.03</v>
       </c>
       <c r="S25" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T25" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U25" s="5">
         <v>624000000</v>
@@ -3147,7 +3146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3201,10 +3200,10 @@
         <v>50.68</v>
       </c>
       <c r="S26" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T26" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U26" s="5">
         <v>47900000</v>
@@ -3222,7 +3221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3278,10 +3277,10 @@
         <v>135.31</v>
       </c>
       <c r="S27" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T27" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U27" s="5">
         <v>65500000</v>
@@ -3355,10 +3354,10 @@
         <v>37.41</v>
       </c>
       <c r="S28" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T28" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U28" s="5">
         <v>546000000</v>
@@ -3432,10 +3431,10 @@
         <v>40.01</v>
       </c>
       <c r="S29" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T29" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U29" s="5">
         <v>58400000</v>
@@ -3509,10 +3508,10 @@
         <v>37.29</v>
       </c>
       <c r="S30" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T30" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U30" s="5">
         <v>38800000</v>
@@ -3586,10 +3585,10 @@
         <v>50.79</v>
       </c>
       <c r="S31" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T31" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U31" s="5">
         <v>14900000</v>
@@ -3663,10 +3662,10 @@
         <v>97.99</v>
       </c>
       <c r="S32" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T32" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U32" s="5">
         <v>130000000</v>
@@ -3740,10 +3739,10 @@
         <v>38.54</v>
       </c>
       <c r="S33" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T33" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U33" s="5">
         <v>37200000</v>
@@ -3817,10 +3816,10 @@
         <v>29.74</v>
       </c>
       <c r="S34" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T34" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U34" s="5">
         <v>64300000</v>
@@ -3894,10 +3893,10 @@
         <v>46.89</v>
       </c>
       <c r="S35" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T35" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U35" s="5">
         <v>137000000</v>
@@ -3971,10 +3970,10 @@
         <v>53.05</v>
       </c>
       <c r="S36" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T36" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U36" s="5">
         <v>427000000</v>
@@ -4048,10 +4047,10 @@
         <v>78.51</v>
       </c>
       <c r="S37" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T37" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U37" s="5">
         <v>59500000</v>
@@ -4125,10 +4124,10 @@
         <v>91.54</v>
       </c>
       <c r="S38" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T38" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U38" s="5">
         <v>126000000</v>
@@ -4202,10 +4201,10 @@
         <v>21.14</v>
       </c>
       <c r="S39" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T39" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U39" s="5">
         <v>13300000</v>
@@ -4275,10 +4274,10 @@
         <v>99.07</v>
       </c>
       <c r="S40" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T40" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U40" s="5">
         <v>5360000</v>
@@ -4352,10 +4351,10 @@
         <v>36.88</v>
       </c>
       <c r="S41" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T41" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U41" s="5">
         <v>38500000</v>
@@ -4429,10 +4428,10 @@
         <v>9.37</v>
       </c>
       <c r="S42" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T42" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U42" s="5">
         <v>1420000</v>
@@ -4506,10 +4505,10 @@
         <v>64.38</v>
       </c>
       <c r="S43" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T43" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U43" s="5">
         <v>108000000</v>
@@ -4583,10 +4582,10 @@
         <v>76.41</v>
       </c>
       <c r="S44" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T44" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U44" s="5">
         <v>254000000</v>
@@ -4660,10 +4659,10 @@
         <v>10.32</v>
       </c>
       <c r="S45" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T45" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U45" s="5">
         <v>19300000</v>
@@ -4737,10 +4736,10 @@
         <v>91.51</v>
       </c>
       <c r="S46" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T46" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U46" s="5">
         <v>10100000</v>
@@ -4814,10 +4813,10 @@
         <v>33.68</v>
       </c>
       <c r="S47" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T47" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U47" s="5">
         <v>336000000</v>
@@ -4891,10 +4890,10 @@
         <v>50.57</v>
       </c>
       <c r="S48" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T48" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U48" s="5">
         <v>67500000</v>
@@ -4968,10 +4967,10 @@
         <v>64.28</v>
       </c>
       <c r="S49" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T49" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U49" s="5">
         <v>138000000</v>
@@ -5043,10 +5042,10 @@
         <v>10.35</v>
       </c>
       <c r="S50" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T50" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U50" s="5">
         <v>5040000</v>
@@ -5120,10 +5119,10 @@
         <v>10.61</v>
       </c>
       <c r="S51" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T51" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U51" s="5">
         <v>799000</v>
@@ -5197,10 +5196,10 @@
         <v>18.38</v>
       </c>
       <c r="S52" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T52" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U52" s="5">
         <v>38500000</v>
@@ -5274,10 +5273,10 @@
         <v>18.28</v>
       </c>
       <c r="S53" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T53" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U53" s="5">
         <v>85300000</v>
@@ -5351,10 +5350,10 @@
         <v>58.26</v>
       </c>
       <c r="S54" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T54" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U54" s="5">
         <v>240000000</v>
@@ -5428,10 +5427,10 @@
         <v>28.45</v>
       </c>
       <c r="S55" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T55" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U55" s="5">
         <v>66000000</v>
@@ -5505,10 +5504,10 @@
         <v>35.53</v>
       </c>
       <c r="S56" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T56" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U56" s="5">
         <v>37300000</v>
@@ -5582,10 +5581,10 @@
         <v>32.86</v>
       </c>
       <c r="S57" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T57" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U57" s="5">
         <v>8060000</v>
@@ -5659,10 +5658,10 @@
         <v>71.28</v>
       </c>
       <c r="S58" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T58" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U58" s="5">
         <v>3460000</v>
@@ -5736,10 +5735,10 @@
         <v>30.17</v>
       </c>
       <c r="S59" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T59" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U59" s="5">
         <v>4940000</v>
@@ -5813,10 +5812,10 @@
         <v>23.5</v>
       </c>
       <c r="S60" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T60" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U60" s="5">
         <v>10700000</v>
@@ -5890,10 +5889,10 @@
         <v>84.73</v>
       </c>
       <c r="S61" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T61" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U61" s="5">
         <v>46200000</v>
@@ -5967,10 +5966,10 @@
         <v>63.74</v>
       </c>
       <c r="S62" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T62" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U62" s="5">
         <v>6430000</v>
@@ -6042,10 +6041,10 @@
         <v>33.3</v>
       </c>
       <c r="S63" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T63" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U63" s="5">
         <v>47700000</v>
@@ -6117,10 +6116,10 @@
         <v>43</v>
       </c>
       <c r="S64" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T64" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U64" s="5">
         <v>8720000</v>
@@ -6192,10 +6191,10 @@
         <v>17.97</v>
       </c>
       <c r="S65" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T65" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U65" s="5">
         <v>4870000</v>
@@ -6263,10 +6262,10 @@
         <v>16.44</v>
       </c>
       <c r="S66" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T66" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U66" s="5">
         <v>548000</v>
@@ -6340,10 +6339,10 @@
         <v>96.03</v>
       </c>
       <c r="S67" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T67" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U67" s="5">
         <v>5530000</v>
@@ -6415,10 +6414,10 @@
         <v>56.39</v>
       </c>
       <c r="S68" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T68" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U68" s="5">
         <v>4150000</v>
@@ -6492,10 +6491,10 @@
         <v>6.85</v>
       </c>
       <c r="S69" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T69" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U69" s="5">
         <v>4950000</v>
@@ -6569,10 +6568,10 @@
         <v>35.49</v>
       </c>
       <c r="S70" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T70" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U70" s="5">
         <v>33700000</v>
@@ -6646,10 +6645,10 @@
         <v>68.29</v>
       </c>
       <c r="S71" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T71" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U71" s="5">
         <v>141000000</v>
@@ -6723,10 +6722,10 @@
         <v>21.9</v>
       </c>
       <c r="S72" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T72" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U72" s="5">
         <v>28700000</v>
@@ -6798,10 +6797,10 @@
         <v>83.1</v>
       </c>
       <c r="S73" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T73" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U73" s="5">
         <v>4080000</v>
@@ -6875,10 +6874,10 @@
         <v>42.34</v>
       </c>
       <c r="S74" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T74" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U74" s="5">
         <v>45600000</v>
@@ -6952,10 +6951,10 @@
         <v>24.08</v>
       </c>
       <c r="S75" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T75" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U75" s="5">
         <v>194000000</v>
@@ -7029,10 +7028,10 @@
         <v>32.38</v>
       </c>
       <c r="S76" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T76" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U76" s="5">
         <v>54900000</v>
@@ -7106,10 +7105,10 @@
         <v>12.74</v>
       </c>
       <c r="S77" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T77" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U77" s="5">
         <v>6340000</v>
@@ -7183,10 +7182,10 @@
         <v>34.24</v>
       </c>
       <c r="S78" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T78" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U78" s="5">
         <v>25800000</v>
@@ -7260,10 +7259,10 @@
         <v>44.37</v>
       </c>
       <c r="S79" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T79" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U79" s="5">
         <v>4680000</v>
@@ -7335,10 +7334,10 @@
         <v>23.39</v>
       </c>
       <c r="S80" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T80" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U80" s="5">
         <v>119000000</v>
@@ -7412,10 +7411,10 @@
         <v>66.81</v>
       </c>
       <c r="S81" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T81" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U81" s="5">
         <v>21100000</v>
@@ -7489,10 +7488,10 @@
         <v>14.31</v>
       </c>
       <c r="S82" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T82" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U82" s="5">
         <v>22400000</v>
@@ -7566,10 +7565,10 @@
         <v>69.49</v>
       </c>
       <c r="S83" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T83" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U83" s="5">
         <v>14300000</v>
@@ -7643,10 +7642,10 @@
         <v>37.16</v>
       </c>
       <c r="S84" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T84" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U84" s="5">
         <v>46400000</v>
@@ -7720,10 +7719,10 @@
         <v>76.73</v>
       </c>
       <c r="S85" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T85" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U85" s="5">
         <v>55300000</v>
@@ -7797,10 +7796,10 @@
         <v>20.13</v>
       </c>
       <c r="S86" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T86" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U86" s="5">
         <v>28600000</v>
@@ -7868,7 +7867,7 @@
         <v>727.48</v>
       </c>
       <c r="S87" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T87" s="11" t="s">
         <v>225</v>
@@ -7945,10 +7944,10 @@
         <v>10.39</v>
       </c>
       <c r="S88" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T88" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U88" s="5">
         <v>2030000</v>
@@ -8022,10 +8021,10 @@
         <v>14.03</v>
       </c>
       <c r="S89" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T89" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U89" s="5">
         <v>4590000</v>
@@ -8097,10 +8096,10 @@
         <v>38.46</v>
       </c>
       <c r="S90" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T90" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U90" s="5">
         <v>10600000</v>
@@ -8174,10 +8173,10 @@
         <v>82.57</v>
       </c>
       <c r="S91" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T91" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U91" s="5">
         <v>9380000</v>
@@ -8251,10 +8250,10 @@
         <v>14.85</v>
       </c>
       <c r="S92" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T92" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U92" s="5">
         <v>13100000</v>
@@ -8328,10 +8327,10 @@
         <v>58.36</v>
       </c>
       <c r="S93" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T93" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U93" s="5">
         <v>42000000</v>
@@ -8405,10 +8404,10 @@
         <v>64.68</v>
       </c>
       <c r="S94" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T94" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U94" s="5">
         <v>66900000</v>
@@ -8482,10 +8481,10 @@
         <v>26.23</v>
       </c>
       <c r="S95" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T95" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U95" s="5">
         <v>12300000</v>
@@ -8559,10 +8558,10 @@
         <v>38.28</v>
       </c>
       <c r="S96" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T96" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U96" s="5">
         <v>125000000</v>
@@ -8636,10 +8635,10 @@
         <v>108.48</v>
       </c>
       <c r="S97" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T97" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U97" s="5">
         <v>113000000</v>
@@ -8713,10 +8712,10 @@
         <v>74.07</v>
       </c>
       <c r="S98" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T98" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U98" s="5">
         <v>25200000</v>
@@ -8790,10 +8789,10 @@
         <v>21.39</v>
       </c>
       <c r="S99" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T99" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U99" s="5">
         <v>11900000</v>
@@ -8867,10 +8866,10 @@
         <v>46.9</v>
       </c>
       <c r="S100" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T100" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U100" s="5">
         <v>6200000</v>
@@ -8944,10 +8943,10 @@
         <v>87.31</v>
       </c>
       <c r="S101" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="T101" s="8">
-        <v>25569.041666689816</v>
+        <v>25569.041666666668</v>
       </c>
       <c r="U101" s="5">
         <v>21300000</v>
